--- a/exceldata/excel/all/C-冲榜活动表.xlsx
+++ b/exceldata/excel/all/C-冲榜活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22900" windowHeight="8820"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="冲榜活动" sheetId="10" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="483">
   <si>
     <t>id 要和 CSConst 中的冲榜活动类型相同，增删改请通知程序</t>
   </si>
@@ -2389,9 +2389,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2409,11 +2409,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2440,36 +2435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2482,11 +2448,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2498,25 +2478,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,9 +2494,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2546,9 +2524,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2559,22 +2573,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2587,33 +2593,28 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2664,7 +2665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2676,25 +2695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2706,49 +2713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2766,13 +2731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,25 +2749,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,13 +2797,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,37 +2827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2961,32 +2926,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3021,17 +2967,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -3055,179 +2990,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3251,7 +3216,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3266,26 +3231,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3294,37 +3259,37 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="1表头" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
     <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="1表头" xfId="7"/>
+    <cellStyle name="常规 5" xfId="5"/>
+    <cellStyle name="常规 6" xfId="6"/>
+    <cellStyle name="普通数值" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -3675,16 +3640,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3697,9 +3662,9 @@
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5982142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="56.5446428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.8392857142857" style="1" customWidth="1"/>
     <col min="12" max="12" width="29.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="35.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
@@ -4557,12 +4522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4902,7 +4867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
